--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,15 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Cntf</t>
-  </si>
-  <si>
-    <t>Il6ra</t>
-  </si>
-  <si>
     <t>ECs</t>
   </si>
   <si>
@@ -94,10 +85,19 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
+  </si>
+  <si>
+    <t>Cntf</t>
+  </si>
+  <si>
+    <t>Il6ra</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.674545568676103</v>
+        <v>0.3788275</v>
       </c>
       <c r="H2">
-        <v>0.674545568676103</v>
+        <v>0.757655</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07061342889271995</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05378730327014565</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78885450993593</v>
+        <v>2.8378195</v>
       </c>
       <c r="N2">
-        <v>2.78885450993593</v>
+        <v>5.675639</v>
       </c>
       <c r="O2">
-        <v>0.06120907808106178</v>
+        <v>0.06080381239155241</v>
       </c>
       <c r="P2">
-        <v>0.06120907808106178</v>
+        <v>0.04147740483545635</v>
       </c>
       <c r="Q2">
-        <v>1.881209451359647</v>
+        <v>1.07504406663625</v>
       </c>
       <c r="R2">
-        <v>1.881209451359647</v>
+        <v>4.300176266545</v>
       </c>
       <c r="S2">
-        <v>0.06120907808106178</v>
+        <v>0.00429356568271717</v>
       </c>
       <c r="T2">
-        <v>0.06120907808106178</v>
+        <v>0.002230957752743297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.674545568676103</v>
+        <v>0.3788275</v>
       </c>
       <c r="H3">
-        <v>0.674545568676103</v>
+        <v>0.757655</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07061342889271995</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05378730327014565</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.933948120223002</v>
+        <v>1.021347333333333</v>
       </c>
       <c r="N3">
-        <v>0.933948120223002</v>
+        <v>3.064042</v>
       </c>
       <c r="O3">
-        <v>0.02049805868707863</v>
+        <v>0.02188363694118401</v>
       </c>
       <c r="P3">
-        <v>0.02049805868707863</v>
+        <v>0.02239192987200936</v>
       </c>
       <c r="Q3">
-        <v>0.6299905658698023</v>
+        <v>0.3869144569183333</v>
       </c>
       <c r="R3">
-        <v>0.6299905658698023</v>
+        <v>2.32148674151</v>
       </c>
       <c r="S3">
-        <v>0.02049805868707863</v>
+        <v>0.001545278641060396</v>
       </c>
       <c r="T3">
-        <v>0.02049805868707863</v>
+        <v>0.001204401522829601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.674545568676103</v>
+        <v>0.3788275</v>
       </c>
       <c r="H4">
-        <v>0.674545568676103</v>
+        <v>0.757655</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07061342889271995</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05378730327014565</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.1524964031475</v>
+        <v>18.96012766666667</v>
       </c>
       <c r="N4">
-        <v>18.1524964031475</v>
+        <v>56.88038300000001</v>
       </c>
       <c r="O4">
-        <v>0.3984064302199738</v>
+        <v>0.4062443173584093</v>
       </c>
       <c r="P4">
-        <v>0.3984064302199738</v>
+        <v>0.4156801855943991</v>
       </c>
       <c r="Q4">
-        <v>12.24468600915204</v>
+        <v>7.182617763644167</v>
       </c>
       <c r="R4">
-        <v>12.24468600915204</v>
+        <v>43.095706581865</v>
       </c>
       <c r="S4">
-        <v>0.3984064302199738</v>
+        <v>0.02868630421685959</v>
       </c>
       <c r="T4">
-        <v>0.3984064302199738</v>
+        <v>0.02235831620595637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.674545568676103</v>
+        <v>0.3788275</v>
       </c>
       <c r="H5">
-        <v>0.674545568676103</v>
+        <v>0.757655</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.07061342889271995</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05378730327014565</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.4397107973773</v>
+        <v>21.53042833333333</v>
       </c>
       <c r="N5">
-        <v>21.4397107973773</v>
+        <v>64.591285</v>
       </c>
       <c r="O5">
-        <v>0.4705533858280039</v>
+        <v>0.4613162060130196</v>
       </c>
       <c r="P5">
-        <v>0.4705533858280039</v>
+        <v>0.4720312332738815</v>
       </c>
       <c r="Q5">
-        <v>14.46206191206806</v>
+        <v>8.156318339445832</v>
       </c>
       <c r="R5">
-        <v>14.46206191206806</v>
+        <v>48.937910036675</v>
       </c>
       <c r="S5">
-        <v>0.4705533858280039</v>
+        <v>0.03257511911035971</v>
       </c>
       <c r="T5">
-        <v>0.4705533858280039</v>
+        <v>0.02538928709708313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.674545568676103</v>
+        <v>0.3788275</v>
       </c>
       <c r="H6">
-        <v>0.674545568676103</v>
+        <v>0.757655</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.07061342889271995</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.05378730327014565</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.93553722271539</v>
+        <v>1.981512</v>
       </c>
       <c r="N6">
-        <v>1.93553722271539</v>
+        <v>5.944536</v>
       </c>
       <c r="O6">
-        <v>0.04248068465812851</v>
+        <v>0.04245635915166902</v>
       </c>
       <c r="P6">
-        <v>0.04248068465812851</v>
+        <v>0.04344249629529721</v>
       </c>
       <c r="Q6">
-        <v>1.305608056590318</v>
+        <v>0.75065123718</v>
       </c>
       <c r="R6">
-        <v>1.305608056590318</v>
+        <v>4.50390742308</v>
       </c>
       <c r="S6">
-        <v>0.04248068465812851</v>
+        <v>0.00299798909800016</v>
       </c>
       <c r="T6">
-        <v>0.04248068465812851</v>
+        <v>0.00233665472304733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1921 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.3788275</v>
+      </c>
+      <c r="H7">
+        <v>0.757655</v>
+      </c>
+      <c r="I7">
+        <v>0.07061342889271995</v>
+      </c>
+      <c r="J7">
+        <v>0.05378730327014565</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3405015</v>
+      </c>
+      <c r="N7">
+        <v>0.681003</v>
+      </c>
+      <c r="O7">
+        <v>0.007295668144165681</v>
+      </c>
+      <c r="P7">
+        <v>0.004976750128956454</v>
+      </c>
+      <c r="Q7">
+        <v>0.12899133199125</v>
+      </c>
+      <c r="R7">
+        <v>0.5159653279649999</v>
+      </c>
+      <c r="S7">
+        <v>0.0005151721437229254</v>
+      </c>
+      <c r="T7">
+        <v>0.0002676859684859173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.915376</v>
+      </c>
+      <c r="I8">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J8">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.8378195</v>
+      </c>
+      <c r="N8">
+        <v>5.675639</v>
+      </c>
+      <c r="O8">
+        <v>0.06080381239155241</v>
+      </c>
+      <c r="P8">
+        <v>0.04147740483545635</v>
+      </c>
+      <c r="Q8">
+        <v>1.811830454210667</v>
+      </c>
+      <c r="R8">
+        <v>10.870982725264</v>
+      </c>
+      <c r="S8">
+        <v>0.007236180639033231</v>
+      </c>
+      <c r="T8">
+        <v>0.005639932339413645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.915376</v>
+      </c>
+      <c r="I9">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J9">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.021347333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.064042</v>
+      </c>
+      <c r="O9">
+        <v>0.02188363694118401</v>
+      </c>
+      <c r="P9">
+        <v>0.02239192987200936</v>
+      </c>
+      <c r="Q9">
+        <v>0.6520880566435555</v>
+      </c>
+      <c r="R9">
+        <v>5.868792509792</v>
+      </c>
+      <c r="S9">
+        <v>0.002604342453491099</v>
+      </c>
+      <c r="T9">
+        <v>0.003044765455505832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.674545568676103</v>
-      </c>
-      <c r="H7">
-        <v>0.674545568676103</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.312212546451932</v>
-      </c>
-      <c r="N7">
-        <v>0.312212546451932</v>
-      </c>
-      <c r="O7">
-        <v>0.006852362525753438</v>
-      </c>
-      <c r="P7">
-        <v>0.006852362525753438</v>
-      </c>
-      <c r="Q7">
-        <v>0.2106015896942327</v>
-      </c>
-      <c r="R7">
-        <v>0.2106015896942327</v>
-      </c>
-      <c r="S7">
-        <v>0.006852362525753438</v>
-      </c>
-      <c r="T7">
-        <v>0.006852362525753438</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.915376</v>
+      </c>
+      <c r="I10">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J10">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.96012766666667</v>
+      </c>
+      <c r="N10">
+        <v>56.88038300000001</v>
+      </c>
+      <c r="O10">
+        <v>0.4062443173584093</v>
+      </c>
+      <c r="P10">
+        <v>0.4156801855943991</v>
+      </c>
+      <c r="Q10">
+        <v>12.10525782988978</v>
+      </c>
+      <c r="R10">
+        <v>108.947320469008</v>
+      </c>
+      <c r="S10">
+        <v>0.04834659453680251</v>
+      </c>
+      <c r="T10">
+        <v>0.05652253632761601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.915376</v>
+      </c>
+      <c r="I11">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J11">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.53042833333333</v>
+      </c>
+      <c r="N11">
+        <v>64.591285</v>
+      </c>
+      <c r="O11">
+        <v>0.4613162060130196</v>
+      </c>
+      <c r="P11">
+        <v>0.4720312332738815</v>
+      </c>
+      <c r="Q11">
+        <v>13.74628856646222</v>
+      </c>
+      <c r="R11">
+        <v>123.71659709816</v>
+      </c>
+      <c r="S11">
+        <v>0.05490062657464971</v>
+      </c>
+      <c r="T11">
+        <v>0.06418492739157362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.915376</v>
+      </c>
+      <c r="I12">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J12">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.981512</v>
+      </c>
+      <c r="N12">
+        <v>5.944536</v>
+      </c>
+      <c r="O12">
+        <v>0.04245635915166902</v>
+      </c>
+      <c r="P12">
+        <v>0.04344249629529721</v>
+      </c>
+      <c r="Q12">
+        <v>1.265113509504</v>
+      </c>
+      <c r="R12">
+        <v>11.386021585536</v>
+      </c>
+      <c r="S12">
+        <v>0.005052674692809749</v>
+      </c>
+      <c r="T12">
+        <v>0.005907137650792912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6384586666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.915376</v>
+      </c>
+      <c r="I13">
+        <v>0.1190086666348337</v>
+      </c>
+      <c r="J13">
+        <v>0.1359760178291683</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3405015</v>
+      </c>
+      <c r="N13">
+        <v>0.681003</v>
+      </c>
+      <c r="O13">
+        <v>0.007295668144165681</v>
+      </c>
+      <c r="P13">
+        <v>0.004976750128956454</v>
+      </c>
+      <c r="Q13">
+        <v>0.217396133688</v>
+      </c>
+      <c r="R13">
+        <v>1.304376802128</v>
+      </c>
+      <c r="S13">
+        <v>0.0008682477380473894</v>
+      </c>
+      <c r="T13">
+        <v>0.0006767186642662985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.171745</v>
+      </c>
+      <c r="I14">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J14">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.8378195</v>
+      </c>
+      <c r="N14">
+        <v>5.675639</v>
+      </c>
+      <c r="O14">
+        <v>0.06080381239155241</v>
+      </c>
+      <c r="P14">
+        <v>0.04147740483545635</v>
+      </c>
+      <c r="Q14">
+        <v>3.946219770009167</v>
+      </c>
+      <c r="R14">
+        <v>23.677318620055</v>
+      </c>
+      <c r="S14">
+        <v>0.01576061326861341</v>
+      </c>
+      <c r="T14">
+        <v>0.01228393774240002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.171745</v>
+      </c>
+      <c r="I15">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J15">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.021347333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.064042</v>
+      </c>
+      <c r="O15">
+        <v>0.02188363694118401</v>
+      </c>
+      <c r="P15">
+        <v>0.02239192987200936</v>
+      </c>
+      <c r="Q15">
+        <v>1.420266877032222</v>
+      </c>
+      <c r="R15">
+        <v>12.78240189329</v>
+      </c>
+      <c r="S15">
+        <v>0.005672334104969063</v>
+      </c>
+      <c r="T15">
+        <v>0.006631588296595119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.171745</v>
+      </c>
+      <c r="I16">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J16">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.96012766666667</v>
+      </c>
+      <c r="N16">
+        <v>56.88038300000001</v>
+      </c>
+      <c r="O16">
+        <v>0.4062443173584093</v>
+      </c>
+      <c r="P16">
+        <v>0.4156801855943991</v>
+      </c>
+      <c r="Q16">
+        <v>26.36560593092611</v>
+      </c>
+      <c r="R16">
+        <v>237.290453378335</v>
+      </c>
+      <c r="S16">
+        <v>0.1053002982317483</v>
+      </c>
+      <c r="T16">
+        <v>0.1231077388001366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.171745</v>
+      </c>
+      <c r="I17">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J17">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.53042833333333</v>
+      </c>
+      <c r="N17">
+        <v>64.591285</v>
+      </c>
+      <c r="O17">
+        <v>0.4613162060130196</v>
+      </c>
+      <c r="P17">
+        <v>0.4720312332738815</v>
+      </c>
+      <c r="Q17">
+        <v>29.93981891581389</v>
+      </c>
+      <c r="R17">
+        <v>269.458370242325</v>
+      </c>
+      <c r="S17">
+        <v>0.1195751718773035</v>
+      </c>
+      <c r="T17">
+        <v>0.1397966508514047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.171745</v>
+      </c>
+      <c r="I18">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J18">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.981512</v>
+      </c>
+      <c r="N18">
+        <v>5.944536</v>
+      </c>
+      <c r="O18">
+        <v>0.04245635915166902</v>
+      </c>
+      <c r="P18">
+        <v>0.04344249629529721</v>
+      </c>
+      <c r="Q18">
+        <v>2.75545425948</v>
+      </c>
+      <c r="R18">
+        <v>24.79908833532</v>
+      </c>
+      <c r="S18">
+        <v>0.01100487339632302</v>
+      </c>
+      <c r="T18">
+        <v>0.01286591873293133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.390581666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.171745</v>
+      </c>
+      <c r="I19">
+        <v>0.2592043598700904</v>
+      </c>
+      <c r="J19">
+        <v>0.2961597474849553</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3405015</v>
+      </c>
+      <c r="N19">
+        <v>0.681003</v>
+      </c>
+      <c r="O19">
+        <v>0.007295668144165681</v>
+      </c>
+      <c r="P19">
+        <v>0.004976750128956454</v>
+      </c>
+      <c r="Q19">
+        <v>0.4734951433725</v>
+      </c>
+      <c r="R19">
+        <v>2.840970860235</v>
+      </c>
+      <c r="S19">
+        <v>0.001891068991133076</v>
+      </c>
+      <c r="T19">
+        <v>0.001473913061487462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.87841</v>
+      </c>
+      <c r="I20">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J20">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.8378195</v>
+      </c>
+      <c r="N20">
+        <v>5.675639</v>
+      </c>
+      <c r="O20">
+        <v>0.06080381239155241</v>
+      </c>
+      <c r="P20">
+        <v>0.04147740483545635</v>
+      </c>
+      <c r="Q20">
+        <v>2.722802675665</v>
+      </c>
+      <c r="R20">
+        <v>16.33681605399</v>
+      </c>
+      <c r="S20">
+        <v>0.01087446783983909</v>
+      </c>
+      <c r="T20">
+        <v>0.008475640106742293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.87841</v>
+      </c>
+      <c r="I21">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J21">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.021347333333333</v>
+      </c>
+      <c r="N21">
+        <v>3.064042</v>
+      </c>
+      <c r="O21">
+        <v>0.02188363694118401</v>
+      </c>
+      <c r="P21">
+        <v>0.02239192987200936</v>
+      </c>
+      <c r="Q21">
+        <v>0.9799521259133331</v>
+      </c>
+      <c r="R21">
+        <v>8.819569133219998</v>
+      </c>
+      <c r="S21">
+        <v>0.003913782652363459</v>
+      </c>
+      <c r="T21">
+        <v>0.004575646418657506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H22">
+        <v>2.87841</v>
+      </c>
+      <c r="I22">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J22">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.96012766666667</v>
+      </c>
+      <c r="N22">
+        <v>56.88038300000001</v>
+      </c>
+      <c r="O22">
+        <v>0.4062443173584093</v>
+      </c>
+      <c r="P22">
+        <v>0.4156801855943991</v>
+      </c>
+      <c r="Q22">
+        <v>18.19167369233667</v>
+      </c>
+      <c r="R22">
+        <v>163.72506323103</v>
+      </c>
+      <c r="S22">
+        <v>0.07265483183493877</v>
+      </c>
+      <c r="T22">
+        <v>0.08494156436687791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H23">
+        <v>2.87841</v>
+      </c>
+      <c r="I23">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J23">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>21.53042833333333</v>
+      </c>
+      <c r="N23">
+        <v>64.591285</v>
+      </c>
+      <c r="O23">
+        <v>0.4613162060130196</v>
+      </c>
+      <c r="P23">
+        <v>0.4720312332738815</v>
+      </c>
+      <c r="Q23">
+        <v>20.65780007298333</v>
+      </c>
+      <c r="R23">
+        <v>185.92020065685</v>
+      </c>
+      <c r="S23">
+        <v>0.08250417283015839</v>
+      </c>
+      <c r="T23">
+        <v>0.09645653743869578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H24">
+        <v>2.87841</v>
+      </c>
+      <c r="I24">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J24">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.981512</v>
+      </c>
+      <c r="N24">
+        <v>5.944536</v>
+      </c>
+      <c r="O24">
+        <v>0.04245635915166902</v>
+      </c>
+      <c r="P24">
+        <v>0.04344249629529721</v>
+      </c>
+      <c r="Q24">
+        <v>1.90120131864</v>
+      </c>
+      <c r="R24">
+        <v>17.11081186776</v>
+      </c>
+      <c r="S24">
+        <v>0.007593114543844397</v>
+      </c>
+      <c r="T24">
+        <v>0.008877193869725226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9594699999999999</v>
+      </c>
+      <c r="H25">
+        <v>2.87841</v>
+      </c>
+      <c r="I25">
+        <v>0.1788451646717781</v>
+      </c>
+      <c r="J25">
+        <v>0.2043435489844586</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3405015</v>
+      </c>
+      <c r="N25">
+        <v>0.681003</v>
+      </c>
+      <c r="O25">
+        <v>0.007295668144165681</v>
+      </c>
+      <c r="P25">
+        <v>0.004976750128956454</v>
+      </c>
+      <c r="Q25">
+        <v>0.326700974205</v>
+      </c>
+      <c r="R25">
+        <v>1.96020584523</v>
+      </c>
+      <c r="S25">
+        <v>0.001304794970633957</v>
+      </c>
+      <c r="T25">
+        <v>0.001016966783759824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.104013</v>
+      </c>
+      <c r="I26">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J26">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.8378195</v>
+      </c>
+      <c r="N26">
+        <v>5.675639</v>
+      </c>
+      <c r="O26">
+        <v>0.06080381239155241</v>
+      </c>
+      <c r="P26">
+        <v>0.04147740483545635</v>
+      </c>
+      <c r="Q26">
+        <v>1.044329873217833</v>
+      </c>
+      <c r="R26">
+        <v>6.265979239307</v>
+      </c>
+      <c r="S26">
+        <v>0.004170897774557577</v>
+      </c>
+      <c r="T26">
+        <v>0.003250828360506279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H27">
+        <v>1.104013</v>
+      </c>
+      <c r="I27">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J27">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.021347333333333</v>
+      </c>
+      <c r="N27">
+        <v>3.064042</v>
+      </c>
+      <c r="O27">
+        <v>0.02188363694118401</v>
+      </c>
+      <c r="P27">
+        <v>0.02239192987200936</v>
+      </c>
+      <c r="Q27">
+        <v>0.375860244505111</v>
+      </c>
+      <c r="R27">
+        <v>3.382742200545999</v>
+      </c>
+      <c r="S27">
+        <v>0.001501129765177213</v>
+      </c>
+      <c r="T27">
+        <v>0.001754987347042752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.104013</v>
+      </c>
+      <c r="I28">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J28">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>18.96012766666667</v>
+      </c>
+      <c r="N28">
+        <v>56.88038300000001</v>
+      </c>
+      <c r="O28">
+        <v>0.4062443173584093</v>
+      </c>
+      <c r="P28">
+        <v>0.4156801855943991</v>
+      </c>
+      <c r="Q28">
+        <v>6.977409141886556</v>
+      </c>
+      <c r="R28">
+        <v>62.79668227697901</v>
+      </c>
+      <c r="S28">
+        <v>0.02786673158395999</v>
+      </c>
+      <c r="T28">
+        <v>0.03257930291423737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H29">
+        <v>1.104013</v>
+      </c>
+      <c r="I29">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J29">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>21.53042833333333</v>
+      </c>
+      <c r="N29">
+        <v>64.591285</v>
+      </c>
+      <c r="O29">
+        <v>0.4613162060130196</v>
+      </c>
+      <c r="P29">
+        <v>0.4720312332738815</v>
+      </c>
+      <c r="Q29">
+        <v>7.923290925189444</v>
+      </c>
+      <c r="R29">
+        <v>71.30961832670499</v>
+      </c>
+      <c r="S29">
+        <v>0.03164444236878751</v>
+      </c>
+      <c r="T29">
+        <v>0.03699586621339797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H30">
+        <v>1.104013</v>
+      </c>
+      <c r="I30">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J30">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.981512</v>
+      </c>
+      <c r="N30">
+        <v>5.944536</v>
+      </c>
+      <c r="O30">
+        <v>0.04245635915166902</v>
+      </c>
+      <c r="P30">
+        <v>0.04344249629529721</v>
+      </c>
+      <c r="Q30">
+        <v>0.729205002552</v>
+      </c>
+      <c r="R30">
+        <v>6.562845022967999</v>
+      </c>
+      <c r="S30">
+        <v>0.002912336035135122</v>
+      </c>
+      <c r="T30">
+        <v>0.003404844145099883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.3680043333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.104013</v>
+      </c>
+      <c r="I31">
+        <v>0.06859599111481121</v>
+      </c>
+      <c r="J31">
+        <v>0.07837588618194734</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3405015</v>
+      </c>
+      <c r="N31">
+        <v>0.681003</v>
+      </c>
+      <c r="O31">
+        <v>0.007295668144165681</v>
+      </c>
+      <c r="P31">
+        <v>0.004976750128956454</v>
+      </c>
+      <c r="Q31">
+        <v>0.1253060275065</v>
+      </c>
+      <c r="R31">
+        <v>0.751836165039</v>
+      </c>
+      <c r="S31">
+        <v>0.0005004535871938003</v>
+      </c>
+      <c r="T31">
+        <v>0.0003900572016630828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>1.629466</v>
+      </c>
+      <c r="H32">
+        <v>3.258932</v>
+      </c>
+      <c r="I32">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J32">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.8378195</v>
+      </c>
+      <c r="N32">
+        <v>5.675639</v>
+      </c>
+      <c r="O32">
+        <v>0.06080381239155241</v>
+      </c>
+      <c r="P32">
+        <v>0.04147740483545635</v>
+      </c>
+      <c r="Q32">
+        <v>4.624130389387</v>
+      </c>
+      <c r="R32">
+        <v>18.496521557548</v>
+      </c>
+      <c r="S32">
+        <v>0.01846808718679192</v>
+      </c>
+      <c r="T32">
+        <v>0.009596108533650827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>1.629466</v>
+      </c>
+      <c r="H33">
+        <v>3.258932</v>
+      </c>
+      <c r="I33">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J33">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.021347333333333</v>
+      </c>
+      <c r="N33">
+        <v>3.064042</v>
+      </c>
+      <c r="O33">
+        <v>0.02188363694118401</v>
+      </c>
+      <c r="P33">
+        <v>0.02239192987200936</v>
+      </c>
+      <c r="Q33">
+        <v>1.664250753857333</v>
+      </c>
+      <c r="R33">
+        <v>9.985504523144</v>
+      </c>
+      <c r="S33">
+        <v>0.006646769324122774</v>
+      </c>
+      <c r="T33">
+        <v>0.005180540831378555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>1.629466</v>
+      </c>
+      <c r="H34">
+        <v>3.258932</v>
+      </c>
+      <c r="I34">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J34">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>18.96012766666667</v>
+      </c>
+      <c r="N34">
+        <v>56.88038300000001</v>
+      </c>
+      <c r="O34">
+        <v>0.4062443173584093</v>
+      </c>
+      <c r="P34">
+        <v>0.4156801855943991</v>
+      </c>
+      <c r="Q34">
+        <v>30.89488338849267</v>
+      </c>
+      <c r="R34">
+        <v>185.369300330956</v>
+      </c>
+      <c r="S34">
+        <v>0.1233895569541</v>
+      </c>
+      <c r="T34">
+        <v>0.09617072697957492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>1.629466</v>
+      </c>
+      <c r="H35">
+        <v>3.258932</v>
+      </c>
+      <c r="I35">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J35">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>21.53042833333333</v>
+      </c>
+      <c r="N35">
+        <v>64.591285</v>
+      </c>
+      <c r="O35">
+        <v>0.4613162060130196</v>
+      </c>
+      <c r="P35">
+        <v>0.4720312332738815</v>
+      </c>
+      <c r="Q35">
+        <v>35.08310093460334</v>
+      </c>
+      <c r="R35">
+        <v>210.49860560762</v>
+      </c>
+      <c r="S35">
+        <v>0.1401166732517607</v>
+      </c>
+      <c r="T35">
+        <v>0.1092079642817263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>1.629466</v>
+      </c>
+      <c r="H36">
+        <v>3.258932</v>
+      </c>
+      <c r="I36">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J36">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.981512</v>
+      </c>
+      <c r="N36">
+        <v>5.944536</v>
+      </c>
+      <c r="O36">
+        <v>0.04245635915166902</v>
+      </c>
+      <c r="P36">
+        <v>0.04344249629529721</v>
+      </c>
+      <c r="Q36">
+        <v>3.228806432592001</v>
+      </c>
+      <c r="R36">
+        <v>19.372838595552</v>
+      </c>
+      <c r="S36">
+        <v>0.01289537138555656</v>
+      </c>
+      <c r="T36">
+        <v>0.01005074717370054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>1.629466</v>
+      </c>
+      <c r="H37">
+        <v>3.258932</v>
+      </c>
+      <c r="I37">
+        <v>0.3037323888157666</v>
+      </c>
+      <c r="J37">
+        <v>0.231357496249325</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.3405015</v>
+      </c>
+      <c r="N37">
+        <v>0.681003</v>
+      </c>
+      <c r="O37">
+        <v>0.007295668144165681</v>
+      </c>
+      <c r="P37">
+        <v>0.004976750128956454</v>
+      </c>
+      <c r="Q37">
+        <v>0.5548356171990001</v>
+      </c>
+      <c r="R37">
+        <v>2.219342468796</v>
+      </c>
+      <c r="S37">
+        <v>0.002215930713434533</v>
+      </c>
+      <c r="T37">
+        <v>0.001151408449293871</v>
       </c>
     </row>
   </sheetData>
